--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1722582.342755903</v>
+        <v>-1725141.613323459</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>349.5933666234108</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +674,10 @@
         <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
-        <v>42.65752044212383</v>
+        <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
-        <v>43.2945117796236</v>
+        <v>43.29451177962358</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
         <v>204.1129955007334</v>
@@ -716,16 +716,16 @@
         <v>250.9987361002815</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.82709352349997</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736385</v>
+        <v>9.512185486736371</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>29.81344087748202</v>
+        <v>56.24567892730347</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0457926480648</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.9326943004822</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104682</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.83072347163693</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>190.1172987294701</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.6343371202345</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2129282631967</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>32.64801326419392</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>241.2480189963534</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>140.5401046134636</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>102.0151187504651</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>149.7654461215457</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>85.85883363046872</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>69.44978602910692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>72.24046483636366</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206838</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1528,7 +1528,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>120.7871326504003</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>79.9081607862897</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890341</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>31.08121593769579</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>95.81917536083725</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701358</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>79.11532312206222</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2239,13 +2239,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766859</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>121.3986907513288</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>26.13627195705829</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673014</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>14.75529838241462</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179031</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,13 +3427,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308908</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,7 +3898,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
         <v>124.3308255261727</v>
@@ -3907,16 +3907,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1364.137503008535</v>
+        <v>2313.658149144222</v>
       </c>
       <c r="C2" t="n">
-        <v>1364.137503008535</v>
+        <v>1944.69563220381</v>
       </c>
       <c r="D2" t="n">
-        <v>1364.137503008535</v>
+        <v>1586.42993359706</v>
       </c>
       <c r="E2" t="n">
-        <v>978.3492504102906</v>
+        <v>1233.30532084614</v>
       </c>
       <c r="F2" t="n">
-        <v>567.363345620683</v>
+        <v>822.3194160565321</v>
       </c>
       <c r="G2" t="n">
-        <v>152.245893680584</v>
+        <v>407.201964116433</v>
       </c>
       <c r="H2" t="n">
         <v>109.1574891935902</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316234</v>
+        <v>65.42565911316237</v>
       </c>
       <c r="J2" t="n">
         <v>250.5613272725632</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183949</v>
+        <v>578.7702206183958</v>
       </c>
       <c r="L2" t="n">
-        <v>1022.844136887445</v>
+        <v>1022.844136887446</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064181</v>
+        <v>1548.631370064183</v>
       </c>
       <c r="N2" t="n">
-        <v>2087.540198746179</v>
+        <v>2087.540198746181</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767915</v>
+        <v>2583.081262767917</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303804</v>
+        <v>2971.513095303807</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301001</v>
+        <v>3215.036478301004</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.282955658117</v>
+        <v>3271.282955658119</v>
       </c>
       <c r="S2" t="n">
-        <v>3271.282955658117</v>
+        <v>3159.966809007349</v>
       </c>
       <c r="T2" t="n">
-        <v>3065.108212728083</v>
+        <v>2953.792066077315</v>
       </c>
       <c r="U2" t="n">
-        <v>2811.574135859111</v>
+        <v>2700.257989208344</v>
       </c>
       <c r="V2" t="n">
-        <v>2480.511248515541</v>
+        <v>2700.257989208344</v>
       </c>
       <c r="W2" t="n">
-        <v>2127.742593245426</v>
+        <v>2700.257989208344</v>
       </c>
       <c r="X2" t="n">
-        <v>1754.276834984346</v>
+        <v>2700.257989208344</v>
       </c>
       <c r="Y2" t="n">
-        <v>1364.137503008535</v>
+        <v>2700.257989208344</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1647.37174564539</v>
+        <v>931.3149953501908</v>
       </c>
       <c r="C3" t="n">
-        <v>1472.918716364263</v>
+        <v>756.8619660690638</v>
       </c>
       <c r="D3" t="n">
-        <v>1323.984306703011</v>
+        <v>607.9275564078125</v>
       </c>
       <c r="E3" t="n">
-        <v>1164.746851697556</v>
+        <v>448.690101402357</v>
       </c>
       <c r="F3" t="n">
-        <v>1018.212293724441</v>
+        <v>302.1555434292419</v>
       </c>
       <c r="G3" t="n">
-        <v>881.8251154793069</v>
+        <v>165.7683651841082</v>
       </c>
       <c r="H3" t="n">
-        <v>791.0906775767817</v>
+        <v>75.03392728158295</v>
       </c>
       <c r="I3" t="n">
-        <v>781.482409408361</v>
+        <v>65.42565911316237</v>
       </c>
       <c r="J3" t="n">
-        <v>872.9300981008092</v>
+        <v>156.8733478056106</v>
       </c>
       <c r="K3" t="n">
-        <v>1135.057607831234</v>
+        <v>419.000857536035</v>
       </c>
       <c r="L3" t="n">
-        <v>1496.63180001738</v>
+        <v>780.5750497221807</v>
       </c>
       <c r="M3" t="n">
-        <v>1937.92869611801</v>
+        <v>1221.871945822811</v>
       </c>
       <c r="N3" t="n">
-        <v>2405.314052854274</v>
+        <v>1689.257302559075</v>
       </c>
       <c r="O3" t="n">
-        <v>2810.660547928135</v>
+        <v>2094.603797632936</v>
       </c>
       <c r="P3" t="n">
-        <v>3116.65377995989</v>
+        <v>2400.597029664691</v>
       </c>
       <c r="Q3" t="n">
-        <v>3271.282955658117</v>
+        <v>2555.226205362918</v>
       </c>
       <c r="R3" t="n">
-        <v>3271.282955658117</v>
+        <v>2555.226205362918</v>
       </c>
       <c r="S3" t="n">
-        <v>3141.397829417917</v>
+        <v>2425.341079122718</v>
       </c>
       <c r="T3" t="n">
-        <v>2948.657777545536</v>
+        <v>2232.601027250337</v>
       </c>
       <c r="U3" t="n">
-        <v>2720.588346595889</v>
+        <v>2004.53159630069</v>
       </c>
       <c r="V3" t="n">
-        <v>2485.436238364146</v>
+        <v>1769.379488068947</v>
       </c>
       <c r="W3" t="n">
-        <v>2231.198881635944</v>
+        <v>1515.142131340745</v>
       </c>
       <c r="X3" t="n">
-        <v>2023.347381430412</v>
+        <v>1307.290631135213</v>
       </c>
       <c r="Y3" t="n">
-        <v>1815.587082665458</v>
+        <v>1099.530332370259</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2041.217388900234</v>
+        <v>2097.063904637821</v>
       </c>
       <c r="C4" t="n">
-        <v>1872.281205972327</v>
+        <v>1928.127721709915</v>
       </c>
       <c r="D4" t="n">
-        <v>1842.166619227396</v>
+        <v>1871.313904611628</v>
       </c>
       <c r="E4" t="n">
-        <v>1842.166619227396</v>
+        <v>1723.400811029235</v>
       </c>
       <c r="F4" t="n">
-        <v>1842.166619227396</v>
+        <v>1576.510863531325</v>
       </c>
       <c r="G4" t="n">
-        <v>1674.443596350563</v>
+        <v>1576.510863531325</v>
       </c>
       <c r="H4" t="n">
-        <v>1528.046935440985</v>
+        <v>1430.114202621747</v>
       </c>
       <c r="I4" t="n">
-        <v>1430.114202621746</v>
+        <v>1430.114202621747</v>
       </c>
       <c r="J4" t="n">
-        <v>1473.838067726845</v>
+        <v>1473.838067726846</v>
       </c>
       <c r="K4" t="n">
-        <v>1675.526646248736</v>
+        <v>1675.526646248737</v>
       </c>
       <c r="L4" t="n">
-        <v>1989.145022412496</v>
+        <v>1989.145022412497</v>
       </c>
       <c r="M4" t="n">
-        <v>2330.200750630627</v>
+        <v>2330.200750630629</v>
       </c>
       <c r="N4" t="n">
-        <v>2668.581552350619</v>
+        <v>2668.581552350621</v>
       </c>
       <c r="O4" t="n">
-        <v>2965.114695744368</v>
+        <v>2965.114695744369</v>
       </c>
       <c r="P4" t="n">
-        <v>3195.329345372345</v>
+        <v>3195.329345372346</v>
       </c>
       <c r="Q4" t="n">
-        <v>3271.282955658117</v>
+        <v>3271.282955658119</v>
       </c>
       <c r="R4" t="n">
-        <v>3180.544851141312</v>
+        <v>3271.282955658119</v>
       </c>
       <c r="S4" t="n">
-        <v>2988.507175656999</v>
+        <v>3271.282955658119</v>
       </c>
       <c r="T4" t="n">
-        <v>2766.654309878984</v>
+        <v>3271.282955658119</v>
       </c>
       <c r="U4" t="n">
-        <v>2477.550341936361</v>
+        <v>2982.178987715496</v>
       </c>
       <c r="V4" t="n">
-        <v>2222.865853730474</v>
+        <v>2727.494499509609</v>
       </c>
       <c r="W4" t="n">
-        <v>2222.865853730474</v>
+        <v>2727.494499509609</v>
       </c>
       <c r="X4" t="n">
-        <v>2222.865853730474</v>
+        <v>2499.504948611591</v>
       </c>
       <c r="Y4" t="n">
-        <v>2222.865853730474</v>
+        <v>2278.712369468061</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2005.586939522201</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C5" t="n">
-        <v>1636.624422581789</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D5" t="n">
-        <v>1278.358723975039</v>
+        <v>563.5047572728752</v>
       </c>
       <c r="E5" t="n">
-        <v>892.5704713767946</v>
+        <v>563.5047572728752</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>556.5592565236717</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218339</v>
+        <v>141.4868063686682</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2765.652537847403</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>2392.186779586323</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>2392.186779586323</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>532.4548862703364</v>
+        <v>629.1078027362229</v>
       </c>
       <c r="C7" t="n">
-        <v>363.5187033424295</v>
+        <v>460.171619808316</v>
       </c>
       <c r="D7" t="n">
-        <v>213.4020639300937</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E7" t="n">
-        <v>213.4020639300937</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1593.648962285558</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1304.546095411201</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V7" t="n">
-        <v>1049.861607205314</v>
+        <v>1320.966016746953</v>
       </c>
       <c r="W7" t="n">
-        <v>760.4444371683537</v>
+        <v>1031.548846709993</v>
       </c>
       <c r="X7" t="n">
-        <v>532.4548862703364</v>
+        <v>1031.548846709993</v>
       </c>
       <c r="Y7" t="n">
-        <v>532.4548862703364</v>
+        <v>810.7562675664626</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1308.370295943747</v>
+        <v>1734.047335491681</v>
       </c>
       <c r="C8" t="n">
-        <v>1308.370295943747</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="D8" t="n">
-        <v>950.1045973369969</v>
+        <v>1365.08481855127</v>
       </c>
       <c r="E8" t="n">
-        <v>564.3163447387526</v>
+        <v>979.2965659530255</v>
       </c>
       <c r="F8" t="n">
-        <v>557.3708439895491</v>
+        <v>568.310661163418</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>153.2382110084145</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2510.786507531615</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2120.647175555803</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>994.2880032601528</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>530.9956795433841</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>380.8790401310483</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1572.80804017147</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1283.705173297113</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V10" t="n">
-        <v>1283.705173297113</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W10" t="n">
-        <v>994.2880032601528</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X10" t="n">
-        <v>994.2880032601528</v>
+        <v>933.436723517154</v>
       </c>
       <c r="Y10" t="n">
-        <v>994.2880032601528</v>
+        <v>712.6441443736238</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,61 +5027,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192684</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
         <v>1896.176478190825</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400749</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356187</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232828</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797189</v>
+        <v>631.7012443408896</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429794</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5212,7 +5212,7 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2299.202065907117</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2079.600600930058</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1790.525374274256</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1790.525374274256</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1501.108204237295</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138446</v>
+        <v>1501.108204237295</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703146</v>
+        <v>1280.315625093765</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5309,16 +5309,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,16 +5355,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
         <v>1344.266747951538</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>636.6680198981028</v>
+        <v>982.1492342949672</v>
       </c>
       <c r="C16" t="n">
-        <v>467.7318369701959</v>
+        <v>813.2130513670604</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578602</v>
+        <v>663.0964119547247</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5440,7 +5440,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>2100.275499668539</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="U16" t="n">
-        <v>1811.200273012737</v>
+        <v>1975.033022579362</v>
       </c>
       <c r="V16" t="n">
-        <v>1556.51578480685</v>
+        <v>1720.348534373475</v>
       </c>
       <c r="W16" t="n">
-        <v>1267.09861476989</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X16" t="n">
-        <v>1039.109063871873</v>
+        <v>1202.941813438497</v>
       </c>
       <c r="Y16" t="n">
-        <v>818.3164847283425</v>
+        <v>982.1492342949672</v>
       </c>
     </row>
     <row r="17">
@@ -5501,34 +5501,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5537,16 +5537,16 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123002</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>552.8412329032296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>219.0505596597678</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>903.4258806613763</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400714</v>
+        <v>641.1291986799069</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>641.1291986799069</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>491.0125592675712</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851781</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851781</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2324.338143427402</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2104.736678450344</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1815.661451794542</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138413</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703112</v>
+        <v>822.7776635101467</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5984,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2517.442480416598</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,13 +6163,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6206,7 +6206,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,7 +6245,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>956.9553291057243</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>788.0191461778174</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>637.9025067654816</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830886</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851784</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2131.487582220359</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V28" t="n">
-        <v>1876.803094014472</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1587.385923977512</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1359.396373079494</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1138.603793935964</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888044</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>402.724593490894</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533435</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="32">
@@ -6701,7 +6701,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,7 +6859,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6895,7 +6895,7 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
         <v>1280.338681582389</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150028</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942659</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384025</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
@@ -7099,7 +7099,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,28 +7330,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954155</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380734</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,22 +7360,22 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7573,7 +7573,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7585,16 +7585,16 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,13 +7603,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>27.95355500661981</v>
+        <v>27.95355500661913</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.622913276780281</v>
+        <v>1.622913276780253</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>32.33700344885096</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>252.4065097314905</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.2029851842623</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22708,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>118.8020321407303</v>
+        <v>92.3697940909089</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.95340549104682</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.8307234716369</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.11729872947</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>46.4596884482275</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>101.1181252153549</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>115.3527467088734</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.524138292272</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>121.586274966451</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>41.54258064659091</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>139.4693302300326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194194</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>59.62759525031575</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>191.26917837023</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194277</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>131.6786642641545</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.22910392194265</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>7.638334409421077e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1095602.239677693</v>
+        <v>1095602.239677694</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101551.284536593</v>
+        <v>101551.2845365931</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796425</v>
@@ -26347,10 +26347,10 @@
         <v>123156.2654796425</v>
       </c>
       <c r="N2" t="n">
+        <v>123156.2654796425</v>
+      </c>
+      <c r="O2" t="n">
         <v>123156.2654796426</v>
-      </c>
-      <c r="O2" t="n">
-        <v>123156.2654796425</v>
       </c>
       <c r="P2" t="n">
         <v>123156.2654796425</v>
@@ -26366,13 +26366,13 @@
         <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074572</v>
+        <v>14479.05232074524</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.8894125531</v>
+        <v>213977.8894125532</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022639</v>
+        <v>3495.24184102258</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551185</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13002.08618742621</v>
+        <v>13002.08618742619</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316946</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26430,28 +26430,28 @@
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
         <v>12386.92018181814</v>
       </c>
       <c r="I4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181814</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181815</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="L4" t="n">
-        <v>20377.77944491161</v>
+        <v>20377.77944491159</v>
       </c>
       <c r="M4" t="n">
         <v>20377.77944491159</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.7794449116</v>
+        <v>20377.77944491159</v>
       </c>
       <c r="O4" t="n">
         <v>20377.77944491159</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1331831.974635152</v>
+        <v>-1332192.05765087</v>
       </c>
       <c r="C6" t="n">
-        <v>-90830.68235566597</v>
+        <v>-90830.68235566544</v>
       </c>
       <c r="D6" t="n">
-        <v>-76351.63003492022</v>
+        <v>-76351.63003492019</v>
       </c>
       <c r="E6" t="n">
-        <v>-317849.9218595796</v>
+        <v>-317884.6597850152</v>
       </c>
       <c r="F6" t="n">
-        <v>7562.539947775673</v>
+        <v>7527.802022339965</v>
       </c>
       <c r="G6" t="n">
-        <v>7562.539947775673</v>
+        <v>7527.802022339951</v>
       </c>
       <c r="H6" t="n">
-        <v>7562.539947775629</v>
+        <v>7527.802022339951</v>
       </c>
       <c r="I6" t="n">
-        <v>7562.539947775585</v>
+        <v>7527.802022339936</v>
       </c>
       <c r="J6" t="n">
-        <v>-206415.3494647774</v>
+        <v>-206450.0873902133</v>
       </c>
       <c r="K6" t="n">
-        <v>4067.298106753035</v>
+        <v>4032.560181317341</v>
       </c>
       <c r="L6" t="n">
-        <v>-19813.34781281631</v>
+        <v>-19813.34781281625</v>
       </c>
       <c r="M6" t="n">
         <v>-85440.65775469634</v>
       </c>
       <c r="N6" t="n">
-        <v>-385.6298191844107</v>
+        <v>-385.6298191844689</v>
       </c>
       <c r="O6" t="n">
-        <v>-385.6298191844835</v>
+        <v>-385.6298191843962</v>
       </c>
       <c r="P6" t="n">
         <v>-385.629819184498</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
         <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
+        <v>24.28464749203968</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.2846474920397</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145292</v>
+        <v>817.8207389145297</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209571</v>
+        <v>11.08225210209525</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145292</v>
+        <v>817.8207389145297</v>
       </c>
       <c r="C4" t="n">
-        <v>13.5807164877632</v>
+        <v>13.58071648776297</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145293</v>
+        <v>817.8207389145297</v>
       </c>
       <c r="K4" t="n">
-        <v>13.5807164877632</v>
+        <v>13.58071648776297</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145292</v>
+        <v>817.8207389145297</v>
       </c>
       <c r="K4" t="n">
-        <v>13.5807164877632</v>
+        <v>13.58071648776297</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>261.9597511231265</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>107.9929497210596</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>79.00884466270563</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>150.1225245733629</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>261.1562795319078</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>208.7489307568517</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>76.98417661746225</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>147.3084844398055</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.405880566749434e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>3.081055410802946e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.566747394273988e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.898661962698221e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>-8.44124770082999e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436992</v>
+        <v>4.336460094436993</v>
       </c>
       <c r="H2" t="n">
         <v>44.41077194215286</v>
@@ -31048,37 +31048,37 @@
         <v>167.1813777907823</v>
       </c>
       <c r="J2" t="n">
-        <v>368.051629940222</v>
+        <v>368.0516299402221</v>
       </c>
       <c r="K2" t="n">
-        <v>551.61398573774</v>
+        <v>551.6139857377401</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528662</v>
+        <v>684.3259263528663</v>
       </c>
       <c r="M2" t="n">
-        <v>761.44444855731</v>
+        <v>761.4444485573102</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006292</v>
+        <v>773.7654158006294</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365713</v>
+        <v>730.6447407365715</v>
       </c>
       <c r="P2" t="n">
-        <v>623.588382155158</v>
+        <v>623.5883821551581</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231331</v>
+        <v>468.2889050231332</v>
       </c>
       <c r="R2" t="n">
         <v>272.400161407178</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198305</v>
+        <v>98.81708440198308</v>
       </c>
       <c r="T2" t="n">
-        <v>18.98285406339794</v>
+        <v>18.98285406339795</v>
       </c>
       <c r="U2" t="n">
         <v>0.3469168075549593</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528247</v>
+        <v>2.320210700528248</v>
       </c>
       <c r="H3" t="n">
-        <v>22.40835071299649</v>
+        <v>22.4083507129965</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467869</v>
+        <v>79.88444736467871</v>
       </c>
       <c r="J3" t="n">
-        <v>219.2090293863113</v>
+        <v>219.2090293863114</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6631463217038</v>
+        <v>374.6631463217039</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335565</v>
+        <v>503.7808365335566</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277053</v>
+        <v>587.8884744277054</v>
       </c>
       <c r="N3" t="n">
-        <v>603.4481330290549</v>
+        <v>603.448133029055</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594553</v>
+        <v>552.0371485594554</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0584801736791</v>
+        <v>443.0584801736792</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498864</v>
+        <v>296.1728606498865</v>
       </c>
       <c r="R3" t="n">
         <v>144.0565906871837</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612604</v>
+        <v>43.09689612604001</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164291</v>
+        <v>9.352077341164293</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1526454408242268</v>
+        <v>0.1526454408242269</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>17.29447820695733</v>
       </c>
       <c r="I4" t="n">
-        <v>58.49706943621145</v>
+        <v>58.49706943621147</v>
       </c>
       <c r="J4" t="n">
         <v>137.5247004248538</v>
@@ -31212,7 +31212,7 @@
         <v>225.9953287166814</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889365</v>
+        <v>289.1962132889366</v>
       </c>
       <c r="M4" t="n">
         <v>304.9168586120296</v>
@@ -31230,13 +31230,13 @@
         <v>162.8828617221716</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553256</v>
+        <v>87.46266790553258</v>
       </c>
       <c r="S4" t="n">
-        <v>33.8992993075022</v>
+        <v>33.89929930750221</v>
       </c>
       <c r="T4" t="n">
-        <v>8.311252308046967</v>
+        <v>8.311252308046969</v>
       </c>
       <c r="U4" t="n">
         <v>0.1061010932942168</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,10 +31847,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,19 +32783,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>169.9530009943068</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33190,10 +33190,10 @@
         <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
         <v>926.5868626460027</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33430,7 +33430,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135357</v>
+        <v>187.0057254135358</v>
       </c>
       <c r="K2" t="n">
-        <v>331.5241346927594</v>
+        <v>331.5241346927596</v>
       </c>
       <c r="L2" t="n">
-        <v>448.559511382879</v>
+        <v>448.5595113828791</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300373</v>
+        <v>531.0982153300375</v>
       </c>
       <c r="N2" t="n">
-        <v>544.3523522040382</v>
+        <v>544.3523522040384</v>
       </c>
       <c r="O2" t="n">
-        <v>500.5465293148845</v>
+        <v>500.5465293148848</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998885</v>
+        <v>392.3553863998886</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486836</v>
+        <v>245.9832151486837</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304584</v>
+        <v>56.81462359304589</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964461</v>
+        <v>92.37140271964466</v>
       </c>
       <c r="K3" t="n">
-        <v>264.7752623539646</v>
+        <v>264.7752623539641</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536823</v>
+        <v>365.2264567536824</v>
       </c>
       <c r="M3" t="n">
-        <v>445.754440505687</v>
+        <v>445.7544405056871</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457217</v>
+        <v>472.1064209457218</v>
       </c>
       <c r="O3" t="n">
-        <v>409.4409041150109</v>
+        <v>409.440904115011</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593488</v>
+        <v>309.0840727593489</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.1910865638649</v>
+        <v>156.191086563865</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.16552030818102</v>
+        <v>44.16552030818104</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907985</v>
+        <v>203.7258368907986</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492526</v>
+        <v>316.7862385492527</v>
       </c>
       <c r="M4" t="n">
-        <v>344.5007355738701</v>
+        <v>344.5007355738702</v>
       </c>
       <c r="N4" t="n">
         <v>341.7987896161536</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5284276704531</v>
+        <v>299.5284276704532</v>
       </c>
       <c r="P4" t="n">
         <v>232.5400501292698</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.7208184704772</v>
+        <v>76.72081847047723</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,10 +35495,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,19 +36431,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36838,10 +36838,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016746</v>
@@ -37953,7 +37953,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q43" t="n">
         <v>144.686904791938</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
